--- a/docs/雉・侭.xlsx
+++ b/docs/雉・侭.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="7515" tabRatio="848" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="7515" tabRatio="848" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <sheet name="詳細設計書" sheetId="3" r:id="rId5"/>
     <sheet name="実装" sheetId="6" r:id="rId6"/>
     <sheet name="テスト" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId8"/>
+    <sheet name="Sheet1 (2)" sheetId="14" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="6">テスト!$A$1:$BA$39</definedName>
@@ -24,12 +26,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">目次!$A$1:$M$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">要件定義書!$A$1:$BA$59</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="91">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -947,12 +949,125 @@
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
+  <si>
+    <t>消費税</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒゼイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>送料</t>
+    <rPh sb="0" eb="2">
+      <t>ソウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>ポイント</t>
+  </si>
+  <si>
+    <t>ポイント</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>ポイント
+使用なし</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>税込</t>
+    <rPh sb="0" eb="2">
+      <t>ゼイコ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>月割</t>
+    <rPh sb="0" eb="2">
+      <t>ツキワ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>ポイント割</t>
+    <rPh sb="4" eb="5">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>月割なし</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ワリ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>チェック欄</t>
+    <rPh sb="4" eb="5">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>税抜（割引含）</t>
+    <rPh sb="0" eb="1">
+      <t>ゼイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ワリビキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>税抜（割引含）</t>
+    <rPh sb="0" eb="1">
+      <t>ゼイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ワリビキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フクミ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
@@ -1098,8 +1213,30 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1118,8 +1255,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1179,6 +1340,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1191,7 +1432,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1270,15 +1511,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1299,6 +1531,93 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12478,7 +12797,7 @@
   </sheetPr>
   <dimension ref="B1:M34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J6" sqref="J6:J7"/>
     </sheetView>
   </sheetViews>
@@ -12556,8 +12875,8 @@
   </sheetPr>
   <dimension ref="B1:AL67"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -12808,8 +13127,8 @@
   </sheetPr>
   <dimension ref="A1:AL57"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -13982,7 +14301,7 @@
   </sheetPr>
   <dimension ref="B1:AL66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
@@ -14160,44 +14479,44 @@
   <sheetData>
     <row r="1" spans="2:44" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:44" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
       <c r="AL2" s="3"/>
     </row>
     <row r="3" spans="2:44" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14297,64 +14616,64 @@
       </c>
     </row>
     <row r="14" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="30" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="33" t="s">
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="33" t="s">
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
-      <c r="AD14" s="34"/>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="33" t="s">
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="AH14" s="34"/>
-      <c r="AI14" s="34"/>
-      <c r="AJ14" s="34"/>
-      <c r="AK14" s="34"/>
-      <c r="AL14" s="34"/>
-      <c r="AM14" s="34"/>
-      <c r="AN14" s="34"/>
-      <c r="AO14" s="34"/>
-      <c r="AP14" s="34"/>
-      <c r="AQ14" s="34"/>
-      <c r="AR14" s="35"/>
+      <c r="AH14" s="31"/>
+      <c r="AI14" s="31"/>
+      <c r="AJ14" s="31"/>
+      <c r="AK14" s="31"/>
+      <c r="AL14" s="31"/>
+      <c r="AM14" s="31"/>
+      <c r="AN14" s="31"/>
+      <c r="AO14" s="31"/>
+      <c r="AP14" s="31"/>
+      <c r="AQ14" s="31"/>
+      <c r="AR14" s="32"/>
     </row>
     <row r="15" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="27">
+      <c r="C15" s="34">
         <v>1</v>
       </c>
-      <c r="D15" s="28"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="22" t="s">
         <v>67</v>
       </c>
@@ -14405,10 +14724,10 @@
       <c r="AR15" s="25"/>
     </row>
     <row r="16" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="27">
+      <c r="C16" s="34">
         <v>2</v>
       </c>
-      <c r="D16" s="28"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
@@ -14451,10 +14770,10 @@
       <c r="AR16" s="25"/>
     </row>
     <row r="17" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="27">
+      <c r="C17" s="34">
         <v>3</v>
       </c>
-      <c r="D17" s="28"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
@@ -14497,10 +14816,10 @@
       <c r="AR17" s="25"/>
     </row>
     <row r="18" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="27">
+      <c r="C18" s="34">
         <v>4</v>
       </c>
-      <c r="D18" s="28"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
@@ -14543,10 +14862,10 @@
       <c r="AR18" s="25"/>
     </row>
     <row r="19" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="27">
+      <c r="C19" s="34">
         <v>5</v>
       </c>
-      <c r="D19" s="28"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
@@ -14589,10 +14908,10 @@
       <c r="AR19" s="25"/>
     </row>
     <row r="20" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="27">
+      <c r="C20" s="34">
         <v>6</v>
       </c>
-      <c r="D20" s="28"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
@@ -14635,10 +14954,10 @@
       <c r="AR20" s="25"/>
     </row>
     <row r="21" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="27">
+      <c r="C21" s="34">
         <v>7</v>
       </c>
-      <c r="D21" s="28"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
@@ -14681,10 +15000,10 @@
       <c r="AR21" s="25"/>
     </row>
     <row r="22" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="27">
+      <c r="C22" s="34">
         <v>8</v>
       </c>
-      <c r="D22" s="28"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
@@ -14727,10 +15046,10 @@
       <c r="AR22" s="25"/>
     </row>
     <row r="23" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="27">
+      <c r="C23" s="34">
         <v>9</v>
       </c>
-      <c r="D23" s="28"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
@@ -14803,42 +15122,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="E15:Q15"/>
-    <mergeCell ref="R15:Y15"/>
-    <mergeCell ref="Z15:AF15"/>
-    <mergeCell ref="AG15:AR15"/>
-    <mergeCell ref="E16:Q16"/>
-    <mergeCell ref="R16:Y16"/>
-    <mergeCell ref="Z16:AF16"/>
-    <mergeCell ref="AG16:AR16"/>
-    <mergeCell ref="B2:AK2"/>
-    <mergeCell ref="B4:AK4"/>
-    <mergeCell ref="E14:Q14"/>
-    <mergeCell ref="R14:Y14"/>
-    <mergeCell ref="Z14:AF14"/>
-    <mergeCell ref="AG14:AR14"/>
-    <mergeCell ref="E17:Q17"/>
-    <mergeCell ref="R17:Y17"/>
-    <mergeCell ref="Z17:AF17"/>
-    <mergeCell ref="AG17:AR17"/>
-    <mergeCell ref="E18:Q18"/>
-    <mergeCell ref="R18:Y18"/>
-    <mergeCell ref="Z18:AF18"/>
-    <mergeCell ref="AG18:AR18"/>
-    <mergeCell ref="E19:Q19"/>
-    <mergeCell ref="R19:Y19"/>
-    <mergeCell ref="Z19:AF19"/>
-    <mergeCell ref="AG19:AR19"/>
-    <mergeCell ref="E20:Q20"/>
-    <mergeCell ref="R20:Y20"/>
-    <mergeCell ref="Z20:AF20"/>
-    <mergeCell ref="AG20:AR20"/>
-    <mergeCell ref="Z21:AF21"/>
-    <mergeCell ref="AG21:AR21"/>
-    <mergeCell ref="E22:Q22"/>
-    <mergeCell ref="R22:Y22"/>
-    <mergeCell ref="Z22:AF22"/>
-    <mergeCell ref="AG22:AR22"/>
     <mergeCell ref="E23:Q23"/>
     <mergeCell ref="R23:Y23"/>
     <mergeCell ref="Z23:AF23"/>
@@ -14855,12 +15138,3645 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E21:Q21"/>
     <mergeCell ref="R21:Y21"/>
+    <mergeCell ref="Z21:AF21"/>
+    <mergeCell ref="AG21:AR21"/>
+    <mergeCell ref="E22:Q22"/>
+    <mergeCell ref="R22:Y22"/>
+    <mergeCell ref="Z22:AF22"/>
+    <mergeCell ref="AG22:AR22"/>
+    <mergeCell ref="E19:Q19"/>
+    <mergeCell ref="R19:Y19"/>
+    <mergeCell ref="Z19:AF19"/>
+    <mergeCell ref="AG19:AR19"/>
+    <mergeCell ref="E20:Q20"/>
+    <mergeCell ref="R20:Y20"/>
+    <mergeCell ref="Z20:AF20"/>
+    <mergeCell ref="AG20:AR20"/>
+    <mergeCell ref="E17:Q17"/>
+    <mergeCell ref="R17:Y17"/>
+    <mergeCell ref="Z17:AF17"/>
+    <mergeCell ref="AG17:AR17"/>
+    <mergeCell ref="E18:Q18"/>
+    <mergeCell ref="R18:Y18"/>
+    <mergeCell ref="Z18:AF18"/>
+    <mergeCell ref="AG18:AR18"/>
+    <mergeCell ref="B2:AK2"/>
+    <mergeCell ref="B4:AK4"/>
+    <mergeCell ref="E14:Q14"/>
+    <mergeCell ref="R14:Y14"/>
+    <mergeCell ref="Z14:AF14"/>
+    <mergeCell ref="AG14:AR14"/>
+    <mergeCell ref="E15:Q15"/>
+    <mergeCell ref="R15:Y15"/>
+    <mergeCell ref="Z15:AF15"/>
+    <mergeCell ref="AG15:AR15"/>
+    <mergeCell ref="E16:Q16"/>
+    <mergeCell ref="R16:Y16"/>
+    <mergeCell ref="Z16:AF16"/>
+    <mergeCell ref="AG16:AR16"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="56" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="7" style="56"/>
+    <col min="13" max="13" width="8.375" style="56" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="7" style="56"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D2" s="57">
+        <v>0</v>
+      </c>
+      <c r="E2" s="57">
+        <v>99</v>
+      </c>
+      <c r="F2" s="57">
+        <v>100</v>
+      </c>
+      <c r="G2" s="57">
+        <v>101</v>
+      </c>
+      <c r="H2" s="57">
+        <v>999</v>
+      </c>
+      <c r="I2" s="57">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="57">
+        <v>1001</v>
+      </c>
+      <c r="K2" s="57">
+        <v>2777</v>
+      </c>
+      <c r="L2" s="57">
+        <v>2778</v>
+      </c>
+      <c r="M2" s="57">
+        <v>2779</v>
+      </c>
+      <c r="N2" s="57">
+        <v>2999</v>
+      </c>
+      <c r="O2" s="57">
+        <v>3000</v>
+      </c>
+      <c r="P2" s="57">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="59">
+        <v>0</v>
+      </c>
+      <c r="F3" s="59">
+        <v>0</v>
+      </c>
+      <c r="G3" s="59">
+        <v>0</v>
+      </c>
+      <c r="H3" s="59">
+        <v>0</v>
+      </c>
+      <c r="I3" s="59">
+        <v>0</v>
+      </c>
+      <c r="J3" s="59">
+        <v>0</v>
+      </c>
+      <c r="K3" s="59">
+        <v>0</v>
+      </c>
+      <c r="L3" s="59">
+        <v>0</v>
+      </c>
+      <c r="M3" s="59">
+        <v>0</v>
+      </c>
+      <c r="N3" s="59">
+        <v>0</v>
+      </c>
+      <c r="O3" s="59">
+        <v>0</v>
+      </c>
+      <c r="P3" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="59">
+        <v>0</v>
+      </c>
+      <c r="F4" s="59">
+        <v>0</v>
+      </c>
+      <c r="G4" s="59">
+        <v>0</v>
+      </c>
+      <c r="H4" s="59">
+        <v>0</v>
+      </c>
+      <c r="I4" s="59">
+        <v>0</v>
+      </c>
+      <c r="J4" s="59">
+        <v>0</v>
+      </c>
+      <c r="K4" s="59">
+        <v>0</v>
+      </c>
+      <c r="L4" s="59">
+        <v>0</v>
+      </c>
+      <c r="M4" s="59">
+        <v>0</v>
+      </c>
+      <c r="N4" s="59">
+        <v>0</v>
+      </c>
+      <c r="O4" s="59">
+        <v>0</v>
+      </c>
+      <c r="P4" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="59">
+        <v>99</v>
+      </c>
+      <c r="F5" s="59">
+        <v>100</v>
+      </c>
+      <c r="G5" s="59">
+        <v>101</v>
+      </c>
+      <c r="H5" s="59">
+        <v>999</v>
+      </c>
+      <c r="I5" s="59">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="59">
+        <v>1001</v>
+      </c>
+      <c r="K5" s="59">
+        <v>2777</v>
+      </c>
+      <c r="L5" s="59">
+        <v>2778</v>
+      </c>
+      <c r="M5" s="59">
+        <v>2779</v>
+      </c>
+      <c r="N5" s="59">
+        <v>2999</v>
+      </c>
+      <c r="O5" s="59">
+        <v>3000</v>
+      </c>
+      <c r="P5" s="59">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="59">
+        <v>7</v>
+      </c>
+      <c r="F6" s="59">
+        <v>8</v>
+      </c>
+      <c r="G6" s="59">
+        <v>8</v>
+      </c>
+      <c r="H6" s="59">
+        <v>79</v>
+      </c>
+      <c r="I6" s="59">
+        <v>80</v>
+      </c>
+      <c r="J6" s="59">
+        <v>80</v>
+      </c>
+      <c r="K6" s="59">
+        <v>222</v>
+      </c>
+      <c r="L6" s="59">
+        <v>222</v>
+      </c>
+      <c r="M6" s="59">
+        <v>222</v>
+      </c>
+      <c r="N6" s="59">
+        <v>239</v>
+      </c>
+      <c r="O6" s="59">
+        <v>240</v>
+      </c>
+      <c r="P6" s="59">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="59">
+        <v>106</v>
+      </c>
+      <c r="F7" s="59">
+        <v>108</v>
+      </c>
+      <c r="G7" s="59">
+        <v>109</v>
+      </c>
+      <c r="H7" s="59">
+        <v>1078</v>
+      </c>
+      <c r="I7" s="59">
+        <v>1080</v>
+      </c>
+      <c r="J7" s="59">
+        <v>1081</v>
+      </c>
+      <c r="K7" s="59">
+        <v>2999</v>
+      </c>
+      <c r="L7" s="59">
+        <v>3000</v>
+      </c>
+      <c r="M7" s="59">
+        <v>3001</v>
+      </c>
+      <c r="N7" s="59">
+        <v>3238</v>
+      </c>
+      <c r="O7" s="59">
+        <v>3240</v>
+      </c>
+      <c r="P7" s="59">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="59">
+        <v>350</v>
+      </c>
+      <c r="F8" s="59">
+        <v>350</v>
+      </c>
+      <c r="G8" s="59">
+        <v>350</v>
+      </c>
+      <c r="H8" s="59">
+        <v>350</v>
+      </c>
+      <c r="I8" s="59">
+        <v>350</v>
+      </c>
+      <c r="J8" s="59">
+        <v>350</v>
+      </c>
+      <c r="K8" s="59">
+        <v>350</v>
+      </c>
+      <c r="L8" s="59">
+        <v>0</v>
+      </c>
+      <c r="M8" s="59">
+        <v>0</v>
+      </c>
+      <c r="N8" s="59">
+        <v>0</v>
+      </c>
+      <c r="O8" s="59">
+        <v>0</v>
+      </c>
+      <c r="P8" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="59">
+        <v>456</v>
+      </c>
+      <c r="F9" s="59">
+        <v>458</v>
+      </c>
+      <c r="G9" s="59">
+        <v>459</v>
+      </c>
+      <c r="H9" s="59">
+        <v>1428</v>
+      </c>
+      <c r="I9" s="59">
+        <v>1430</v>
+      </c>
+      <c r="J9" s="59">
+        <v>1431</v>
+      </c>
+      <c r="K9" s="59">
+        <v>3349</v>
+      </c>
+      <c r="L9" s="59">
+        <v>3000</v>
+      </c>
+      <c r="M9" s="59">
+        <v>3001</v>
+      </c>
+      <c r="N9" s="59">
+        <v>3238</v>
+      </c>
+      <c r="O9" s="59">
+        <v>3240</v>
+      </c>
+      <c r="P9" s="59">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="59">
+        <v>0</v>
+      </c>
+      <c r="F10" s="59">
+        <v>1</v>
+      </c>
+      <c r="G10" s="59">
+        <v>1</v>
+      </c>
+      <c r="H10" s="59">
+        <v>9</v>
+      </c>
+      <c r="I10" s="59">
+        <v>10</v>
+      </c>
+      <c r="J10" s="59">
+        <v>10</v>
+      </c>
+      <c r="K10" s="59">
+        <v>27</v>
+      </c>
+      <c r="L10" s="59">
+        <v>27</v>
+      </c>
+      <c r="M10" s="59">
+        <v>27</v>
+      </c>
+      <c r="N10" s="59">
+        <v>29</v>
+      </c>
+      <c r="O10" s="59">
+        <v>30</v>
+      </c>
+      <c r="P10" s="59">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="58"/>
+      <c r="B12" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="59">
+        <v>-4</v>
+      </c>
+      <c r="F12" s="59">
+        <v>-5</v>
+      </c>
+      <c r="G12" s="59">
+        <v>-5</v>
+      </c>
+      <c r="H12" s="59">
+        <v>-49</v>
+      </c>
+      <c r="I12" s="59">
+        <v>-50</v>
+      </c>
+      <c r="J12" s="59">
+        <v>-50</v>
+      </c>
+      <c r="K12" s="59">
+        <v>-138</v>
+      </c>
+      <c r="L12" s="59">
+        <v>-138</v>
+      </c>
+      <c r="M12" s="59">
+        <v>-138</v>
+      </c>
+      <c r="N12" s="59">
+        <v>-149</v>
+      </c>
+      <c r="O12" s="59">
+        <v>-150</v>
+      </c>
+      <c r="P12" s="59">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="59">
+        <v>0</v>
+      </c>
+      <c r="F13" s="59">
+        <v>0</v>
+      </c>
+      <c r="G13" s="59">
+        <v>0</v>
+      </c>
+      <c r="H13" s="59">
+        <v>0</v>
+      </c>
+      <c r="I13" s="59">
+        <v>0</v>
+      </c>
+      <c r="J13" s="59">
+        <v>0</v>
+      </c>
+      <c r="K13" s="59">
+        <v>0</v>
+      </c>
+      <c r="L13" s="59">
+        <v>0</v>
+      </c>
+      <c r="M13" s="59">
+        <v>0</v>
+      </c>
+      <c r="N13" s="59">
+        <v>0</v>
+      </c>
+      <c r="O13" s="59">
+        <v>0</v>
+      </c>
+      <c r="P13" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="59">
+        <v>95</v>
+      </c>
+      <c r="F14" s="59">
+        <v>95</v>
+      </c>
+      <c r="G14" s="59">
+        <v>96</v>
+      </c>
+      <c r="H14" s="59">
+        <v>950</v>
+      </c>
+      <c r="I14" s="59">
+        <v>950</v>
+      </c>
+      <c r="J14" s="59">
+        <v>951</v>
+      </c>
+      <c r="K14" s="59">
+        <v>2639</v>
+      </c>
+      <c r="L14" s="59">
+        <v>2640</v>
+      </c>
+      <c r="M14" s="59">
+        <v>2641</v>
+      </c>
+      <c r="N14" s="59">
+        <v>2850</v>
+      </c>
+      <c r="O14" s="59">
+        <v>2850</v>
+      </c>
+      <c r="P14" s="59">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="59">
+        <v>7</v>
+      </c>
+      <c r="F15" s="59">
+        <v>7</v>
+      </c>
+      <c r="G15" s="59">
+        <v>7</v>
+      </c>
+      <c r="H15" s="59">
+        <v>76</v>
+      </c>
+      <c r="I15" s="59">
+        <v>76</v>
+      </c>
+      <c r="J15" s="59">
+        <v>76</v>
+      </c>
+      <c r="K15" s="59">
+        <v>211</v>
+      </c>
+      <c r="L15" s="59">
+        <v>211</v>
+      </c>
+      <c r="M15" s="59">
+        <v>211</v>
+      </c>
+      <c r="N15" s="59">
+        <v>228</v>
+      </c>
+      <c r="O15" s="59">
+        <v>228</v>
+      </c>
+      <c r="P15" s="59">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="59">
+        <v>102</v>
+      </c>
+      <c r="F16" s="59">
+        <v>102</v>
+      </c>
+      <c r="G16" s="59">
+        <v>103</v>
+      </c>
+      <c r="H16" s="59">
+        <v>1026</v>
+      </c>
+      <c r="I16" s="59">
+        <v>1026</v>
+      </c>
+      <c r="J16" s="59">
+        <v>1027</v>
+      </c>
+      <c r="K16" s="59">
+        <v>2850</v>
+      </c>
+      <c r="L16" s="59">
+        <v>2851</v>
+      </c>
+      <c r="M16" s="59">
+        <v>2852</v>
+      </c>
+      <c r="N16" s="59">
+        <v>3078</v>
+      </c>
+      <c r="O16" s="59">
+        <v>3078</v>
+      </c>
+      <c r="P16" s="59">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="59">
+        <v>350</v>
+      </c>
+      <c r="F17" s="59">
+        <v>350</v>
+      </c>
+      <c r="G17" s="59">
+        <v>350</v>
+      </c>
+      <c r="H17" s="59">
+        <v>350</v>
+      </c>
+      <c r="I17" s="59">
+        <v>350</v>
+      </c>
+      <c r="J17" s="59">
+        <v>350</v>
+      </c>
+      <c r="K17" s="59">
+        <v>350</v>
+      </c>
+      <c r="L17" s="59">
+        <v>350</v>
+      </c>
+      <c r="M17" s="59">
+        <v>350</v>
+      </c>
+      <c r="N17" s="59">
+        <v>0</v>
+      </c>
+      <c r="O17" s="59">
+        <v>0</v>
+      </c>
+      <c r="P17" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="59">
+        <v>452</v>
+      </c>
+      <c r="F18" s="59">
+        <v>452</v>
+      </c>
+      <c r="G18" s="59">
+        <v>453</v>
+      </c>
+      <c r="H18" s="59">
+        <v>1376</v>
+      </c>
+      <c r="I18" s="59">
+        <v>1376</v>
+      </c>
+      <c r="J18" s="59">
+        <v>1377</v>
+      </c>
+      <c r="K18" s="59">
+        <v>3200</v>
+      </c>
+      <c r="L18" s="59">
+        <v>3201</v>
+      </c>
+      <c r="M18" s="59">
+        <v>3202</v>
+      </c>
+      <c r="N18" s="59">
+        <v>3078</v>
+      </c>
+      <c r="O18" s="59">
+        <v>3078</v>
+      </c>
+      <c r="P18" s="59">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="59">
+        <v>0</v>
+      </c>
+      <c r="F19" s="59">
+        <v>0</v>
+      </c>
+      <c r="G19" s="59">
+        <v>0</v>
+      </c>
+      <c r="H19" s="59">
+        <v>9</v>
+      </c>
+      <c r="I19" s="59">
+        <v>9</v>
+      </c>
+      <c r="J19" s="59">
+        <v>9</v>
+      </c>
+      <c r="K19" s="59">
+        <v>26</v>
+      </c>
+      <c r="L19" s="59">
+        <v>26</v>
+      </c>
+      <c r="M19" s="59">
+        <v>26</v>
+      </c>
+      <c r="N19" s="59">
+        <v>28</v>
+      </c>
+      <c r="O19" s="59">
+        <v>28</v>
+      </c>
+      <c r="P19" s="59">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+    </row>
+    <row r="21" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="59">
+        <v>0</v>
+      </c>
+      <c r="F21" s="59">
+        <v>0</v>
+      </c>
+      <c r="G21" s="59">
+        <v>0</v>
+      </c>
+      <c r="H21" s="59">
+        <v>0</v>
+      </c>
+      <c r="I21" s="59">
+        <v>0</v>
+      </c>
+      <c r="J21" s="59">
+        <v>0</v>
+      </c>
+      <c r="K21" s="59">
+        <v>0</v>
+      </c>
+      <c r="L21" s="59">
+        <v>0</v>
+      </c>
+      <c r="M21" s="59">
+        <v>0</v>
+      </c>
+      <c r="N21" s="59">
+        <v>0</v>
+      </c>
+      <c r="O21" s="59">
+        <v>0</v>
+      </c>
+      <c r="P21" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="59">
+        <v>-1000</v>
+      </c>
+      <c r="F22" s="59">
+        <v>-1000</v>
+      </c>
+      <c r="G22" s="59">
+        <v>-1000</v>
+      </c>
+      <c r="H22" s="59">
+        <v>-1000</v>
+      </c>
+      <c r="I22" s="59">
+        <v>-1000</v>
+      </c>
+      <c r="J22" s="59">
+        <v>-1000</v>
+      </c>
+      <c r="K22" s="59">
+        <v>-1000</v>
+      </c>
+      <c r="L22" s="59">
+        <v>-1000</v>
+      </c>
+      <c r="M22" s="59">
+        <v>-1000</v>
+      </c>
+      <c r="N22" s="59">
+        <v>-1000</v>
+      </c>
+      <c r="O22" s="59">
+        <v>-1000</v>
+      </c>
+      <c r="P22" s="59">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="59">
+        <v>-901</v>
+      </c>
+      <c r="F23" s="59">
+        <v>-900</v>
+      </c>
+      <c r="G23" s="59">
+        <v>-899</v>
+      </c>
+      <c r="H23" s="59">
+        <v>-1</v>
+      </c>
+      <c r="I23" s="59">
+        <v>0</v>
+      </c>
+      <c r="J23" s="59">
+        <v>1</v>
+      </c>
+      <c r="K23" s="59">
+        <v>1777</v>
+      </c>
+      <c r="L23" s="59">
+        <v>1778</v>
+      </c>
+      <c r="M23" s="59">
+        <v>1779</v>
+      </c>
+      <c r="N23" s="59">
+        <v>1999</v>
+      </c>
+      <c r="O23" s="59">
+        <v>2000</v>
+      </c>
+      <c r="P23" s="59">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="59">
+        <v>-72</v>
+      </c>
+      <c r="F24" s="59">
+        <v>-72</v>
+      </c>
+      <c r="G24" s="59">
+        <v>-71</v>
+      </c>
+      <c r="H24" s="59">
+        <v>0</v>
+      </c>
+      <c r="I24" s="59">
+        <v>0</v>
+      </c>
+      <c r="J24" s="59">
+        <v>0</v>
+      </c>
+      <c r="K24" s="59">
+        <v>142</v>
+      </c>
+      <c r="L24" s="59">
+        <v>142</v>
+      </c>
+      <c r="M24" s="59">
+        <v>142</v>
+      </c>
+      <c r="N24" s="59">
+        <v>159</v>
+      </c>
+      <c r="O24" s="59">
+        <v>160</v>
+      </c>
+      <c r="P24" s="59">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="59">
+        <v>-973</v>
+      </c>
+      <c r="F25" s="59">
+        <v>-972</v>
+      </c>
+      <c r="G25" s="59">
+        <v>-970</v>
+      </c>
+      <c r="H25" s="59">
+        <v>-1</v>
+      </c>
+      <c r="I25" s="59">
+        <v>0</v>
+      </c>
+      <c r="J25" s="59">
+        <v>1</v>
+      </c>
+      <c r="K25" s="59">
+        <v>1919</v>
+      </c>
+      <c r="L25" s="59">
+        <v>1920</v>
+      </c>
+      <c r="M25" s="59">
+        <v>1921</v>
+      </c>
+      <c r="N25" s="59">
+        <v>2158</v>
+      </c>
+      <c r="O25" s="59">
+        <v>2160</v>
+      </c>
+      <c r="P25" s="59">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="59">
+        <v>350</v>
+      </c>
+      <c r="F26" s="59">
+        <v>350</v>
+      </c>
+      <c r="G26" s="59">
+        <v>350</v>
+      </c>
+      <c r="H26" s="59">
+        <v>350</v>
+      </c>
+      <c r="I26" s="59">
+        <v>350</v>
+      </c>
+      <c r="J26" s="59">
+        <v>350</v>
+      </c>
+      <c r="K26" s="59">
+        <v>350</v>
+      </c>
+      <c r="L26" s="59">
+        <v>350</v>
+      </c>
+      <c r="M26" s="59">
+        <v>350</v>
+      </c>
+      <c r="N26" s="59">
+        <v>350</v>
+      </c>
+      <c r="O26" s="59">
+        <v>350</v>
+      </c>
+      <c r="P26" s="59">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="59">
+        <v>-623</v>
+      </c>
+      <c r="F27" s="59">
+        <v>-622</v>
+      </c>
+      <c r="G27" s="59">
+        <v>-620</v>
+      </c>
+      <c r="H27" s="59">
+        <v>349</v>
+      </c>
+      <c r="I27" s="59">
+        <v>350</v>
+      </c>
+      <c r="J27" s="59">
+        <v>351</v>
+      </c>
+      <c r="K27" s="59">
+        <v>2269</v>
+      </c>
+      <c r="L27" s="59">
+        <v>2270</v>
+      </c>
+      <c r="M27" s="59">
+        <v>2271</v>
+      </c>
+      <c r="N27" s="59">
+        <v>2508</v>
+      </c>
+      <c r="O27" s="59">
+        <v>2510</v>
+      </c>
+      <c r="P27" s="59">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="59">
+        <v>-9</v>
+      </c>
+      <c r="F28" s="59">
+        <v>-9</v>
+      </c>
+      <c r="G28" s="59">
+        <v>-8</v>
+      </c>
+      <c r="H28" s="59">
+        <v>0</v>
+      </c>
+      <c r="I28" s="59">
+        <v>0</v>
+      </c>
+      <c r="J28" s="59">
+        <v>0</v>
+      </c>
+      <c r="K28" s="59">
+        <v>17</v>
+      </c>
+      <c r="L28" s="59">
+        <v>17</v>
+      </c>
+      <c r="M28" s="59">
+        <v>17</v>
+      </c>
+      <c r="N28" s="59">
+        <v>19</v>
+      </c>
+      <c r="O28" s="59">
+        <v>20</v>
+      </c>
+      <c r="P28" s="59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="58"/>
+      <c r="B30" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="59">
+        <v>-4</v>
+      </c>
+      <c r="F30" s="59">
+        <v>-5</v>
+      </c>
+      <c r="G30" s="59">
+        <v>-5</v>
+      </c>
+      <c r="H30" s="59">
+        <v>-49</v>
+      </c>
+      <c r="I30" s="59">
+        <v>-50</v>
+      </c>
+      <c r="J30" s="59">
+        <v>-50</v>
+      </c>
+      <c r="K30" s="59">
+        <v>-138</v>
+      </c>
+      <c r="L30" s="59">
+        <v>-138</v>
+      </c>
+      <c r="M30" s="59">
+        <v>-138</v>
+      </c>
+      <c r="N30" s="59">
+        <v>-149</v>
+      </c>
+      <c r="O30" s="59">
+        <v>-150</v>
+      </c>
+      <c r="P30" s="59">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="59">
+        <v>-1000</v>
+      </c>
+      <c r="F31" s="59">
+        <v>-1000</v>
+      </c>
+      <c r="G31" s="59">
+        <v>-1000</v>
+      </c>
+      <c r="H31" s="59">
+        <v>-1000</v>
+      </c>
+      <c r="I31" s="59">
+        <v>-1000</v>
+      </c>
+      <c r="J31" s="59">
+        <v>-1000</v>
+      </c>
+      <c r="K31" s="59">
+        <v>-1000</v>
+      </c>
+      <c r="L31" s="59">
+        <v>-1000</v>
+      </c>
+      <c r="M31" s="59">
+        <v>-1000</v>
+      </c>
+      <c r="N31" s="59">
+        <v>-1000</v>
+      </c>
+      <c r="O31" s="59">
+        <v>-1000</v>
+      </c>
+      <c r="P31" s="59">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="58"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="59">
+        <v>-905</v>
+      </c>
+      <c r="F32" s="59">
+        <v>-905</v>
+      </c>
+      <c r="G32" s="59">
+        <v>-904</v>
+      </c>
+      <c r="H32" s="59">
+        <v>-50</v>
+      </c>
+      <c r="I32" s="59">
+        <v>-50</v>
+      </c>
+      <c r="J32" s="59">
+        <v>-49</v>
+      </c>
+      <c r="K32" s="59">
+        <v>1639</v>
+      </c>
+      <c r="L32" s="59">
+        <v>1640</v>
+      </c>
+      <c r="M32" s="59">
+        <v>1641</v>
+      </c>
+      <c r="N32" s="59">
+        <v>1850</v>
+      </c>
+      <c r="O32" s="59">
+        <v>1850</v>
+      </c>
+      <c r="P32" s="59">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="59">
+        <v>-72</v>
+      </c>
+      <c r="F33" s="59">
+        <v>-72</v>
+      </c>
+      <c r="G33" s="59">
+        <v>-72</v>
+      </c>
+      <c r="H33" s="59">
+        <v>-4</v>
+      </c>
+      <c r="I33" s="59">
+        <v>-4</v>
+      </c>
+      <c r="J33" s="59">
+        <v>-3</v>
+      </c>
+      <c r="K33" s="59">
+        <v>131</v>
+      </c>
+      <c r="L33" s="59">
+        <v>131</v>
+      </c>
+      <c r="M33" s="59">
+        <v>131</v>
+      </c>
+      <c r="N33" s="59">
+        <v>148</v>
+      </c>
+      <c r="O33" s="59">
+        <v>148</v>
+      </c>
+      <c r="P33" s="59">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="58"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="59">
+        <v>-977</v>
+      </c>
+      <c r="F34" s="59">
+        <v>-977</v>
+      </c>
+      <c r="G34" s="59">
+        <v>-976</v>
+      </c>
+      <c r="H34" s="59">
+        <v>-54</v>
+      </c>
+      <c r="I34" s="59">
+        <v>-54</v>
+      </c>
+      <c r="J34" s="59">
+        <v>-52</v>
+      </c>
+      <c r="K34" s="59">
+        <v>1770</v>
+      </c>
+      <c r="L34" s="59">
+        <v>1771</v>
+      </c>
+      <c r="M34" s="59">
+        <v>1772</v>
+      </c>
+      <c r="N34" s="59">
+        <v>1998</v>
+      </c>
+      <c r="O34" s="59">
+        <v>1998</v>
+      </c>
+      <c r="P34" s="59">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="59">
+        <v>350</v>
+      </c>
+      <c r="F35" s="59">
+        <v>350</v>
+      </c>
+      <c r="G35" s="59">
+        <v>350</v>
+      </c>
+      <c r="H35" s="59">
+        <v>350</v>
+      </c>
+      <c r="I35" s="59">
+        <v>350</v>
+      </c>
+      <c r="J35" s="59">
+        <v>350</v>
+      </c>
+      <c r="K35" s="59">
+        <v>350</v>
+      </c>
+      <c r="L35" s="59">
+        <v>350</v>
+      </c>
+      <c r="M35" s="59">
+        <v>350</v>
+      </c>
+      <c r="N35" s="59">
+        <v>350</v>
+      </c>
+      <c r="O35" s="59">
+        <v>350</v>
+      </c>
+      <c r="P35" s="59">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="59">
+        <v>-627</v>
+      </c>
+      <c r="F36" s="59">
+        <v>-627</v>
+      </c>
+      <c r="G36" s="59">
+        <v>-626</v>
+      </c>
+      <c r="H36" s="59">
+        <v>296</v>
+      </c>
+      <c r="I36" s="59">
+        <v>296</v>
+      </c>
+      <c r="J36" s="59">
+        <v>298</v>
+      </c>
+      <c r="K36" s="59">
+        <v>2120</v>
+      </c>
+      <c r="L36" s="59">
+        <v>2121</v>
+      </c>
+      <c r="M36" s="59">
+        <v>2122</v>
+      </c>
+      <c r="N36" s="59">
+        <v>2348</v>
+      </c>
+      <c r="O36" s="59">
+        <v>2348</v>
+      </c>
+      <c r="P36" s="59">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="59">
+        <v>-9</v>
+      </c>
+      <c r="F37" s="59">
+        <v>-9</v>
+      </c>
+      <c r="G37" s="59">
+        <v>-9</v>
+      </c>
+      <c r="H37" s="59">
+        <v>0</v>
+      </c>
+      <c r="I37" s="59">
+        <v>0</v>
+      </c>
+      <c r="J37" s="59">
+        <v>0</v>
+      </c>
+      <c r="K37" s="59">
+        <v>16</v>
+      </c>
+      <c r="L37" s="59">
+        <v>16</v>
+      </c>
+      <c r="M37" s="59">
+        <v>16</v>
+      </c>
+      <c r="N37" s="59">
+        <v>18</v>
+      </c>
+      <c r="O37" s="59">
+        <v>18</v>
+      </c>
+      <c r="P37" s="59">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="58"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="60"/>
+      <c r="P38" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A20"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="A21:A38"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="B3:B11"/>
+  </mergeCells>
+  <phoneticPr fontId="12"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.375" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="7" style="36"/>
+    <col min="5" max="5" width="7" style="36" customWidth="1"/>
+    <col min="6" max="12" width="7" style="36"/>
+    <col min="13" max="13" width="8.375" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" style="36"/>
+    <col min="15" max="15" width="7" style="36" customWidth="1"/>
+    <col min="16" max="16384" width="7" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D2" s="39">
+        <v>0</v>
+      </c>
+      <c r="E2" s="39">
+        <v>99</v>
+      </c>
+      <c r="F2" s="39">
+        <v>100</v>
+      </c>
+      <c r="G2" s="39">
+        <v>101</v>
+      </c>
+      <c r="H2" s="39">
+        <v>999</v>
+      </c>
+      <c r="I2" s="39">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="39">
+        <v>1001</v>
+      </c>
+      <c r="K2" s="39">
+        <v>2777</v>
+      </c>
+      <c r="L2" s="39">
+        <v>2778</v>
+      </c>
+      <c r="M2" s="39">
+        <v>2779</v>
+      </c>
+      <c r="N2" s="39">
+        <v>2999</v>
+      </c>
+      <c r="O2" s="39">
+        <v>3000</v>
+      </c>
+      <c r="P2" s="39">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="37">
+        <v>0</v>
+      </c>
+      <c r="F3" s="37">
+        <v>0</v>
+      </c>
+      <c r="G3" s="37">
+        <v>0</v>
+      </c>
+      <c r="H3" s="37">
+        <v>0</v>
+      </c>
+      <c r="I3" s="37">
+        <v>0</v>
+      </c>
+      <c r="J3" s="37">
+        <v>0</v>
+      </c>
+      <c r="K3" s="37">
+        <v>0</v>
+      </c>
+      <c r="L3" s="37">
+        <v>0</v>
+      </c>
+      <c r="M3" s="37">
+        <v>0</v>
+      </c>
+      <c r="N3" s="37">
+        <v>0</v>
+      </c>
+      <c r="O3" s="37">
+        <v>0</v>
+      </c>
+      <c r="P3" s="37">
+        <v>0</v>
+      </c>
+      <c r="R3" s="36">
+        <f>3000/1.08</f>
+        <v>2777.7777777777774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="37">
+        <v>0</v>
+      </c>
+      <c r="F4" s="37">
+        <v>0</v>
+      </c>
+      <c r="G4" s="37">
+        <v>0</v>
+      </c>
+      <c r="H4" s="37">
+        <v>0</v>
+      </c>
+      <c r="I4" s="37">
+        <v>0</v>
+      </c>
+      <c r="J4" s="37">
+        <v>0</v>
+      </c>
+      <c r="K4" s="37">
+        <v>0</v>
+      </c>
+      <c r="L4" s="37">
+        <v>0</v>
+      </c>
+      <c r="M4" s="37">
+        <v>0</v>
+      </c>
+      <c r="N4" s="37">
+        <v>0</v>
+      </c>
+      <c r="O4" s="37">
+        <v>0</v>
+      </c>
+      <c r="P4" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="37">
+        <f>E2</f>
+        <v>99</v>
+      </c>
+      <c r="F5" s="37">
+        <f t="shared" ref="F5:P5" si="0">F2</f>
+        <v>100</v>
+      </c>
+      <c r="G5" s="37">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="H5" s="37">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="I5" s="37">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="J5" s="37">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="K5" s="37">
+        <f t="shared" si="0"/>
+        <v>2777</v>
+      </c>
+      <c r="L5" s="37">
+        <f t="shared" si="0"/>
+        <v>2778</v>
+      </c>
+      <c r="M5" s="37">
+        <f t="shared" si="0"/>
+        <v>2779</v>
+      </c>
+      <c r="N5" s="37">
+        <f t="shared" si="0"/>
+        <v>2999</v>
+      </c>
+      <c r="O5" s="37">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="P5" s="37">
+        <f t="shared" si="0"/>
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="37">
+        <f>ROUNDDOWN(E5*0.08,0)</f>
+        <v>7</v>
+      </c>
+      <c r="F6" s="37">
+        <f t="shared" ref="F6:P6" si="1">ROUNDDOWN(F5*0.08,0)</f>
+        <v>8</v>
+      </c>
+      <c r="G6" s="37">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H6" s="37">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="I6" s="37">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="J6" s="37">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="K6" s="37">
+        <f t="shared" si="1"/>
+        <v>222</v>
+      </c>
+      <c r="L6" s="37">
+        <f t="shared" si="1"/>
+        <v>222</v>
+      </c>
+      <c r="M6" s="37">
+        <f t="shared" si="1"/>
+        <v>222</v>
+      </c>
+      <c r="N6" s="37">
+        <f t="shared" si="1"/>
+        <v>239</v>
+      </c>
+      <c r="O6" s="37">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="P6" s="37">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="37">
+        <f>E5+E6</f>
+        <v>106</v>
+      </c>
+      <c r="F7" s="37">
+        <f t="shared" ref="F7:P7" si="2">F5+F6</f>
+        <v>108</v>
+      </c>
+      <c r="G7" s="37">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="H7" s="37">
+        <f t="shared" si="2"/>
+        <v>1078</v>
+      </c>
+      <c r="I7" s="37">
+        <f t="shared" si="2"/>
+        <v>1080</v>
+      </c>
+      <c r="J7" s="37">
+        <f t="shared" si="2"/>
+        <v>1081</v>
+      </c>
+      <c r="K7" s="37">
+        <f t="shared" si="2"/>
+        <v>2999</v>
+      </c>
+      <c r="L7" s="37">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="M7" s="37">
+        <f t="shared" si="2"/>
+        <v>3001</v>
+      </c>
+      <c r="N7" s="37">
+        <f t="shared" si="2"/>
+        <v>3238</v>
+      </c>
+      <c r="O7" s="37">
+        <f t="shared" si="2"/>
+        <v>3240</v>
+      </c>
+      <c r="P7" s="37">
+        <f t="shared" si="2"/>
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="37">
+        <f>IF(E7&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="F8" s="37">
+        <f t="shared" ref="F8:P8" si="3">IF(F7&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="G8" s="37">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="H8" s="37">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="I8" s="37">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="J8" s="37">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="K8" s="37">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="L8" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="44">
+        <f>E8+E7</f>
+        <v>456</v>
+      </c>
+      <c r="F9" s="44">
+        <f t="shared" ref="F9:P9" si="4">F8+F7</f>
+        <v>458</v>
+      </c>
+      <c r="G9" s="44">
+        <f t="shared" si="4"/>
+        <v>459</v>
+      </c>
+      <c r="H9" s="44">
+        <f t="shared" si="4"/>
+        <v>1428</v>
+      </c>
+      <c r="I9" s="44">
+        <f t="shared" si="4"/>
+        <v>1430</v>
+      </c>
+      <c r="J9" s="44">
+        <f t="shared" si="4"/>
+        <v>1431</v>
+      </c>
+      <c r="K9" s="44">
+        <f t="shared" si="4"/>
+        <v>3349</v>
+      </c>
+      <c r="L9" s="44">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="M9" s="44">
+        <f t="shared" si="4"/>
+        <v>3001</v>
+      </c>
+      <c r="N9" s="44">
+        <f t="shared" si="4"/>
+        <v>3238</v>
+      </c>
+      <c r="O9" s="44">
+        <f t="shared" si="4"/>
+        <v>3240</v>
+      </c>
+      <c r="P9" s="44">
+        <f t="shared" si="4"/>
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="46">
+        <f>ROUNDDOWN(E5/100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="46">
+        <f t="shared" ref="F10:P10" si="5">ROUNDDOWN(F5/100,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="46">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="46">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="I10" s="46">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="46">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K10" s="46">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="L10" s="46">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="M10" s="46">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="N10" s="46">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="O10" s="46">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="P10" s="46">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="37">
+        <f>-ROUNDDOWN(E2*0.05,0)</f>
+        <v>-4</v>
+      </c>
+      <c r="F12" s="37">
+        <f t="shared" ref="F12:P12" si="6">-ROUNDDOWN(F2*0.05,0)</f>
+        <v>-5</v>
+      </c>
+      <c r="G12" s="37">
+        <f t="shared" si="6"/>
+        <v>-5</v>
+      </c>
+      <c r="H12" s="37">
+        <f t="shared" si="6"/>
+        <v>-49</v>
+      </c>
+      <c r="I12" s="37">
+        <f t="shared" si="6"/>
+        <v>-50</v>
+      </c>
+      <c r="J12" s="37">
+        <f t="shared" si="6"/>
+        <v>-50</v>
+      </c>
+      <c r="K12" s="37">
+        <f t="shared" si="6"/>
+        <v>-138</v>
+      </c>
+      <c r="L12" s="37">
+        <f t="shared" si="6"/>
+        <v>-138</v>
+      </c>
+      <c r="M12" s="37">
+        <f t="shared" si="6"/>
+        <v>-138</v>
+      </c>
+      <c r="N12" s="37">
+        <f t="shared" si="6"/>
+        <v>-149</v>
+      </c>
+      <c r="O12" s="37">
+        <f t="shared" si="6"/>
+        <v>-150</v>
+      </c>
+      <c r="P12" s="37">
+        <f t="shared" si="6"/>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="37">
+        <v>0</v>
+      </c>
+      <c r="F13" s="37">
+        <v>0</v>
+      </c>
+      <c r="G13" s="37">
+        <v>0</v>
+      </c>
+      <c r="H13" s="37">
+        <v>0</v>
+      </c>
+      <c r="I13" s="37">
+        <v>0</v>
+      </c>
+      <c r="J13" s="37">
+        <v>0</v>
+      </c>
+      <c r="K13" s="37">
+        <v>0</v>
+      </c>
+      <c r="L13" s="37">
+        <v>0</v>
+      </c>
+      <c r="M13" s="37">
+        <v>0</v>
+      </c>
+      <c r="N13" s="37">
+        <v>0</v>
+      </c>
+      <c r="O13" s="37">
+        <v>0</v>
+      </c>
+      <c r="P13" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="37">
+        <f>E2+E12+E13</f>
+        <v>95</v>
+      </c>
+      <c r="F14" s="37">
+        <f t="shared" ref="F14:P14" si="7">F2+F12+F13</f>
+        <v>95</v>
+      </c>
+      <c r="G14" s="37">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+      <c r="H14" s="37">
+        <f t="shared" si="7"/>
+        <v>950</v>
+      </c>
+      <c r="I14" s="37">
+        <f t="shared" si="7"/>
+        <v>950</v>
+      </c>
+      <c r="J14" s="37">
+        <f t="shared" si="7"/>
+        <v>951</v>
+      </c>
+      <c r="K14" s="37">
+        <f t="shared" si="7"/>
+        <v>2639</v>
+      </c>
+      <c r="L14" s="37">
+        <f t="shared" si="7"/>
+        <v>2640</v>
+      </c>
+      <c r="M14" s="37">
+        <f t="shared" si="7"/>
+        <v>2641</v>
+      </c>
+      <c r="N14" s="37">
+        <f t="shared" si="7"/>
+        <v>2850</v>
+      </c>
+      <c r="O14" s="37">
+        <f t="shared" si="7"/>
+        <v>2850</v>
+      </c>
+      <c r="P14" s="37">
+        <f t="shared" si="7"/>
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="37">
+        <f>ROUNDDOWN(E14*0.08,0)</f>
+        <v>7</v>
+      </c>
+      <c r="F15" s="37">
+        <f t="shared" ref="F15" si="8">ROUNDDOWN(F14*0.08,0)</f>
+        <v>7</v>
+      </c>
+      <c r="G15" s="37">
+        <f t="shared" ref="G15" si="9">ROUNDDOWN(G14*0.08,0)</f>
+        <v>7</v>
+      </c>
+      <c r="H15" s="37">
+        <f t="shared" ref="H15" si="10">ROUNDDOWN(H14*0.08,0)</f>
+        <v>76</v>
+      </c>
+      <c r="I15" s="37">
+        <f t="shared" ref="I15" si="11">ROUNDDOWN(I14*0.08,0)</f>
+        <v>76</v>
+      </c>
+      <c r="J15" s="37">
+        <f t="shared" ref="J15" si="12">ROUNDDOWN(J14*0.08,0)</f>
+        <v>76</v>
+      </c>
+      <c r="K15" s="37">
+        <f t="shared" ref="K15" si="13">ROUNDDOWN(K14*0.08,0)</f>
+        <v>211</v>
+      </c>
+      <c r="L15" s="37">
+        <f t="shared" ref="L15" si="14">ROUNDDOWN(L14*0.08,0)</f>
+        <v>211</v>
+      </c>
+      <c r="M15" s="37">
+        <f t="shared" ref="M15" si="15">ROUNDDOWN(M14*0.08,0)</f>
+        <v>211</v>
+      </c>
+      <c r="N15" s="37">
+        <f t="shared" ref="N15" si="16">ROUNDDOWN(N14*0.08,0)</f>
+        <v>228</v>
+      </c>
+      <c r="O15" s="37">
+        <f t="shared" ref="O15" si="17">ROUNDDOWN(O14*0.08,0)</f>
+        <v>228</v>
+      </c>
+      <c r="P15" s="37">
+        <f t="shared" ref="P15" si="18">ROUNDDOWN(P14*0.08,0)</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="37">
+        <f>E14+E15</f>
+        <v>102</v>
+      </c>
+      <c r="F16" s="37">
+        <f t="shared" ref="F16" si="19">F14+F15</f>
+        <v>102</v>
+      </c>
+      <c r="G16" s="37">
+        <f t="shared" ref="G16" si="20">G14+G15</f>
+        <v>103</v>
+      </c>
+      <c r="H16" s="37">
+        <f t="shared" ref="H16" si="21">H14+H15</f>
+        <v>1026</v>
+      </c>
+      <c r="I16" s="37">
+        <f t="shared" ref="I16" si="22">I14+I15</f>
+        <v>1026</v>
+      </c>
+      <c r="J16" s="37">
+        <f t="shared" ref="J16" si="23">J14+J15</f>
+        <v>1027</v>
+      </c>
+      <c r="K16" s="37">
+        <f t="shared" ref="K16" si="24">K14+K15</f>
+        <v>2850</v>
+      </c>
+      <c r="L16" s="37">
+        <f t="shared" ref="L16" si="25">L14+L15</f>
+        <v>2851</v>
+      </c>
+      <c r="M16" s="37">
+        <f t="shared" ref="M16" si="26">M14+M15</f>
+        <v>2852</v>
+      </c>
+      <c r="N16" s="37">
+        <f t="shared" ref="N16" si="27">N14+N15</f>
+        <v>3078</v>
+      </c>
+      <c r="O16" s="37">
+        <f t="shared" ref="O16" si="28">O14+O15</f>
+        <v>3078</v>
+      </c>
+      <c r="P16" s="37">
+        <f t="shared" ref="P16" si="29">P14+P15</f>
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="37">
+        <f>IF(E16&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="F17" s="37">
+        <f t="shared" ref="F17" si="30">IF(F16&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="G17" s="37">
+        <f t="shared" ref="G17" si="31">IF(G16&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="H17" s="37">
+        <f t="shared" ref="H17" si="32">IF(H16&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="I17" s="37">
+        <f t="shared" ref="I17" si="33">IF(I16&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="J17" s="37">
+        <f t="shared" ref="J17" si="34">IF(J16&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="K17" s="37">
+        <f t="shared" ref="K17" si="35">IF(K16&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="L17" s="37">
+        <f t="shared" ref="L17" si="36">IF(L16&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="M17" s="37">
+        <f t="shared" ref="M17" si="37">IF(M16&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="N17" s="37">
+        <f t="shared" ref="N17" si="38">IF(N16&gt;=3000,0,350)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="37">
+        <f t="shared" ref="O17" si="39">IF(O16&gt;=3000,0,350)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="37">
+        <f t="shared" ref="P17" si="40">IF(P16&gt;=3000,0,350)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="44">
+        <f>E17+E16</f>
+        <v>452</v>
+      </c>
+      <c r="F18" s="44">
+        <f t="shared" ref="F18" si="41">F17+F16</f>
+        <v>452</v>
+      </c>
+      <c r="G18" s="44">
+        <f t="shared" ref="G18" si="42">G17+G16</f>
+        <v>453</v>
+      </c>
+      <c r="H18" s="44">
+        <f t="shared" ref="H18" si="43">H17+H16</f>
+        <v>1376</v>
+      </c>
+      <c r="I18" s="44">
+        <f t="shared" ref="I18" si="44">I17+I16</f>
+        <v>1376</v>
+      </c>
+      <c r="J18" s="44">
+        <f t="shared" ref="J18" si="45">J17+J16</f>
+        <v>1377</v>
+      </c>
+      <c r="K18" s="44">
+        <f t="shared" ref="K18" si="46">K17+K16</f>
+        <v>3200</v>
+      </c>
+      <c r="L18" s="44">
+        <f t="shared" ref="L18" si="47">L17+L16</f>
+        <v>3201</v>
+      </c>
+      <c r="M18" s="44">
+        <f t="shared" ref="M18" si="48">M17+M16</f>
+        <v>3202</v>
+      </c>
+      <c r="N18" s="44">
+        <f t="shared" ref="N18" si="49">N17+N16</f>
+        <v>3078</v>
+      </c>
+      <c r="O18" s="44">
+        <f t="shared" ref="O18" si="50">O17+O16</f>
+        <v>3078</v>
+      </c>
+      <c r="P18" s="44">
+        <f t="shared" ref="P18" si="51">P17+P16</f>
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="46">
+        <f>ROUNDDOWN(E14/100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="46">
+        <f t="shared" ref="F19:P19" si="52">ROUNDDOWN(F14/100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="46">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="46">
+        <f t="shared" si="52"/>
+        <v>9</v>
+      </c>
+      <c r="I19" s="46">
+        <f t="shared" si="52"/>
+        <v>9</v>
+      </c>
+      <c r="J19" s="46">
+        <f t="shared" si="52"/>
+        <v>9</v>
+      </c>
+      <c r="K19" s="46">
+        <f t="shared" si="52"/>
+        <v>26</v>
+      </c>
+      <c r="L19" s="46">
+        <f t="shared" si="52"/>
+        <v>26</v>
+      </c>
+      <c r="M19" s="46">
+        <f t="shared" si="52"/>
+        <v>26</v>
+      </c>
+      <c r="N19" s="46">
+        <f t="shared" si="52"/>
+        <v>28</v>
+      </c>
+      <c r="O19" s="46">
+        <f t="shared" si="52"/>
+        <v>28</v>
+      </c>
+      <c r="P19" s="46">
+        <f t="shared" si="52"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="55"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+    </row>
+    <row r="21" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="37">
+        <v>0</v>
+      </c>
+      <c r="F21" s="37">
+        <v>0</v>
+      </c>
+      <c r="G21" s="37">
+        <v>0</v>
+      </c>
+      <c r="H21" s="37">
+        <v>0</v>
+      </c>
+      <c r="I21" s="37">
+        <v>0</v>
+      </c>
+      <c r="J21" s="37">
+        <v>0</v>
+      </c>
+      <c r="K21" s="37">
+        <v>0</v>
+      </c>
+      <c r="L21" s="37">
+        <v>0</v>
+      </c>
+      <c r="M21" s="37">
+        <v>0</v>
+      </c>
+      <c r="N21" s="37">
+        <v>0</v>
+      </c>
+      <c r="O21" s="37">
+        <v>0</v>
+      </c>
+      <c r="P21" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="54"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="37">
+        <v>-1000</v>
+      </c>
+      <c r="F22" s="37">
+        <v>-1000</v>
+      </c>
+      <c r="G22" s="37">
+        <v>-1000</v>
+      </c>
+      <c r="H22" s="37">
+        <v>-1000</v>
+      </c>
+      <c r="I22" s="37">
+        <v>-1000</v>
+      </c>
+      <c r="J22" s="37">
+        <v>-1000</v>
+      </c>
+      <c r="K22" s="37">
+        <v>-1000</v>
+      </c>
+      <c r="L22" s="37">
+        <v>-1000</v>
+      </c>
+      <c r="M22" s="37">
+        <v>-1000</v>
+      </c>
+      <c r="N22" s="37">
+        <v>-1000</v>
+      </c>
+      <c r="O22" s="37">
+        <v>-1000</v>
+      </c>
+      <c r="P22" s="37">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="54"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="37">
+        <f>E2+E21+E22</f>
+        <v>-901</v>
+      </c>
+      <c r="F23" s="37">
+        <f t="shared" ref="F23:P23" si="53">F2+F21+F22</f>
+        <v>-900</v>
+      </c>
+      <c r="G23" s="37">
+        <f t="shared" si="53"/>
+        <v>-899</v>
+      </c>
+      <c r="H23" s="37">
+        <f t="shared" si="53"/>
+        <v>-1</v>
+      </c>
+      <c r="I23" s="37">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="37">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="37">
+        <f t="shared" si="53"/>
+        <v>1777</v>
+      </c>
+      <c r="L23" s="37">
+        <f t="shared" si="53"/>
+        <v>1778</v>
+      </c>
+      <c r="M23" s="37">
+        <f t="shared" si="53"/>
+        <v>1779</v>
+      </c>
+      <c r="N23" s="37">
+        <f t="shared" si="53"/>
+        <v>1999</v>
+      </c>
+      <c r="O23" s="37">
+        <f t="shared" si="53"/>
+        <v>2000</v>
+      </c>
+      <c r="P23" s="37">
+        <f t="shared" si="53"/>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="54"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="37">
+        <f>ROUNDDOWN(E23*0.08,0)</f>
+        <v>-72</v>
+      </c>
+      <c r="F24" s="37">
+        <f t="shared" ref="F24" si="54">ROUNDDOWN(F23*0.08,0)</f>
+        <v>-72</v>
+      </c>
+      <c r="G24" s="37">
+        <f t="shared" ref="G24" si="55">ROUNDDOWN(G23*0.08,0)</f>
+        <v>-71</v>
+      </c>
+      <c r="H24" s="37">
+        <f t="shared" ref="H24" si="56">ROUNDDOWN(H23*0.08,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="37">
+        <f t="shared" ref="I24" si="57">ROUNDDOWN(I23*0.08,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="37">
+        <f t="shared" ref="J24" si="58">ROUNDDOWN(J23*0.08,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="37">
+        <f t="shared" ref="K24" si="59">ROUNDDOWN(K23*0.08,0)</f>
+        <v>142</v>
+      </c>
+      <c r="L24" s="37">
+        <f t="shared" ref="L24" si="60">ROUNDDOWN(L23*0.08,0)</f>
+        <v>142</v>
+      </c>
+      <c r="M24" s="37">
+        <f t="shared" ref="M24" si="61">ROUNDDOWN(M23*0.08,0)</f>
+        <v>142</v>
+      </c>
+      <c r="N24" s="37">
+        <f t="shared" ref="N24" si="62">ROUNDDOWN(N23*0.08,0)</f>
+        <v>159</v>
+      </c>
+      <c r="O24" s="37">
+        <f t="shared" ref="O24" si="63">ROUNDDOWN(O23*0.08,0)</f>
+        <v>160</v>
+      </c>
+      <c r="P24" s="37">
+        <f t="shared" ref="P24" si="64">ROUNDDOWN(P23*0.08,0)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="54"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="37">
+        <f>E23+E24</f>
+        <v>-973</v>
+      </c>
+      <c r="F25" s="37">
+        <f t="shared" ref="F25" si="65">F23+F24</f>
+        <v>-972</v>
+      </c>
+      <c r="G25" s="37">
+        <f t="shared" ref="G25" si="66">G23+G24</f>
+        <v>-970</v>
+      </c>
+      <c r="H25" s="37">
+        <f t="shared" ref="H25" si="67">H23+H24</f>
+        <v>-1</v>
+      </c>
+      <c r="I25" s="37">
+        <f t="shared" ref="I25" si="68">I23+I24</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="37">
+        <f t="shared" ref="J25" si="69">J23+J24</f>
+        <v>1</v>
+      </c>
+      <c r="K25" s="37">
+        <f t="shared" ref="K25" si="70">K23+K24</f>
+        <v>1919</v>
+      </c>
+      <c r="L25" s="37">
+        <f t="shared" ref="L25" si="71">L23+L24</f>
+        <v>1920</v>
+      </c>
+      <c r="M25" s="37">
+        <f t="shared" ref="M25" si="72">M23+M24</f>
+        <v>1921</v>
+      </c>
+      <c r="N25" s="37">
+        <f t="shared" ref="N25" si="73">N23+N24</f>
+        <v>2158</v>
+      </c>
+      <c r="O25" s="37">
+        <f t="shared" ref="O25" si="74">O23+O24</f>
+        <v>2160</v>
+      </c>
+      <c r="P25" s="37">
+        <f t="shared" ref="P25" si="75">P23+P24</f>
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="54"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="37">
+        <f>IF(E25&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="F26" s="37">
+        <f t="shared" ref="F26" si="76">IF(F25&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="G26" s="37">
+        <f t="shared" ref="G26" si="77">IF(G25&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="H26" s="37">
+        <f t="shared" ref="H26" si="78">IF(H25&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="I26" s="37">
+        <f t="shared" ref="I26" si="79">IF(I25&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="J26" s="37">
+        <f t="shared" ref="J26" si="80">IF(J25&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="K26" s="37">
+        <f t="shared" ref="K26" si="81">IF(K25&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="L26" s="37">
+        <f t="shared" ref="L26" si="82">IF(L25&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="M26" s="37">
+        <f t="shared" ref="M26" si="83">IF(M25&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="N26" s="37">
+        <f t="shared" ref="N26" si="84">IF(N25&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="O26" s="37">
+        <f t="shared" ref="O26" si="85">IF(O25&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="P26" s="37">
+        <f t="shared" ref="P26" si="86">IF(P25&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="54"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="44">
+        <f>E26+E25</f>
+        <v>-623</v>
+      </c>
+      <c r="F27" s="44">
+        <f t="shared" ref="F27" si="87">F26+F25</f>
+        <v>-622</v>
+      </c>
+      <c r="G27" s="44">
+        <f t="shared" ref="G27" si="88">G26+G25</f>
+        <v>-620</v>
+      </c>
+      <c r="H27" s="44">
+        <f t="shared" ref="H27" si="89">H26+H25</f>
+        <v>349</v>
+      </c>
+      <c r="I27" s="44">
+        <f t="shared" ref="I27" si="90">I26+I25</f>
+        <v>350</v>
+      </c>
+      <c r="J27" s="44">
+        <f t="shared" ref="J27" si="91">J26+J25</f>
+        <v>351</v>
+      </c>
+      <c r="K27" s="44">
+        <f t="shared" ref="K27" si="92">K26+K25</f>
+        <v>2269</v>
+      </c>
+      <c r="L27" s="44">
+        <f t="shared" ref="L27" si="93">L26+L25</f>
+        <v>2270</v>
+      </c>
+      <c r="M27" s="44">
+        <f t="shared" ref="M27" si="94">M26+M25</f>
+        <v>2271</v>
+      </c>
+      <c r="N27" s="44">
+        <f t="shared" ref="N27" si="95">N26+N25</f>
+        <v>2508</v>
+      </c>
+      <c r="O27" s="44">
+        <f t="shared" ref="O27" si="96">O26+O25</f>
+        <v>2510</v>
+      </c>
+      <c r="P27" s="44">
+        <f t="shared" ref="P27" si="97">P26+P25</f>
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="54"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="46">
+        <f>ROUNDDOWN(E23/100,0)</f>
+        <v>-9</v>
+      </c>
+      <c r="F28" s="46">
+        <f t="shared" ref="F28:P28" si="98">ROUNDDOWN(F23/100,0)</f>
+        <v>-9</v>
+      </c>
+      <c r="G28" s="46">
+        <f t="shared" si="98"/>
+        <v>-8</v>
+      </c>
+      <c r="H28" s="46">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="46">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="46">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="46">
+        <f t="shared" si="98"/>
+        <v>17</v>
+      </c>
+      <c r="L28" s="46">
+        <f t="shared" si="98"/>
+        <v>17</v>
+      </c>
+      <c r="M28" s="46">
+        <f t="shared" si="98"/>
+        <v>17</v>
+      </c>
+      <c r="N28" s="46">
+        <f t="shared" si="98"/>
+        <v>19</v>
+      </c>
+      <c r="O28" s="46">
+        <f t="shared" si="98"/>
+        <v>20</v>
+      </c>
+      <c r="P28" s="46">
+        <f t="shared" si="98"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="54"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="54"/>
+      <c r="B30" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="37">
+        <f>-ROUNDDOWN(E2*0.05,0)</f>
+        <v>-4</v>
+      </c>
+      <c r="F30" s="37">
+        <f t="shared" ref="F30:P30" si="99">-ROUNDDOWN(F2*0.05,0)</f>
+        <v>-5</v>
+      </c>
+      <c r="G30" s="37">
+        <f t="shared" si="99"/>
+        <v>-5</v>
+      </c>
+      <c r="H30" s="37">
+        <f t="shared" si="99"/>
+        <v>-49</v>
+      </c>
+      <c r="I30" s="37">
+        <f t="shared" si="99"/>
+        <v>-50</v>
+      </c>
+      <c r="J30" s="37">
+        <f t="shared" si="99"/>
+        <v>-50</v>
+      </c>
+      <c r="K30" s="37">
+        <f t="shared" si="99"/>
+        <v>-138</v>
+      </c>
+      <c r="L30" s="37">
+        <f t="shared" si="99"/>
+        <v>-138</v>
+      </c>
+      <c r="M30" s="37">
+        <f t="shared" si="99"/>
+        <v>-138</v>
+      </c>
+      <c r="N30" s="37">
+        <f t="shared" si="99"/>
+        <v>-149</v>
+      </c>
+      <c r="O30" s="37">
+        <f t="shared" si="99"/>
+        <v>-150</v>
+      </c>
+      <c r="P30" s="37">
+        <f t="shared" si="99"/>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="54"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="37">
+        <v>-1000</v>
+      </c>
+      <c r="F31" s="37">
+        <v>-1000</v>
+      </c>
+      <c r="G31" s="37">
+        <v>-1000</v>
+      </c>
+      <c r="H31" s="37">
+        <v>-1000</v>
+      </c>
+      <c r="I31" s="37">
+        <v>-1000</v>
+      </c>
+      <c r="J31" s="37">
+        <v>-1000</v>
+      </c>
+      <c r="K31" s="37">
+        <v>-1000</v>
+      </c>
+      <c r="L31" s="37">
+        <v>-1000</v>
+      </c>
+      <c r="M31" s="37">
+        <v>-1000</v>
+      </c>
+      <c r="N31" s="37">
+        <v>-1000</v>
+      </c>
+      <c r="O31" s="37">
+        <v>-1000</v>
+      </c>
+      <c r="P31" s="37">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="54"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="37">
+        <f>E2+E30+E31</f>
+        <v>-905</v>
+      </c>
+      <c r="F32" s="37">
+        <f t="shared" ref="F32:P32" si="100">F2+F30+F31</f>
+        <v>-905</v>
+      </c>
+      <c r="G32" s="37">
+        <f t="shared" si="100"/>
+        <v>-904</v>
+      </c>
+      <c r="H32" s="37">
+        <f t="shared" si="100"/>
+        <v>-50</v>
+      </c>
+      <c r="I32" s="37">
+        <f t="shared" si="100"/>
+        <v>-50</v>
+      </c>
+      <c r="J32" s="37">
+        <f t="shared" si="100"/>
+        <v>-49</v>
+      </c>
+      <c r="K32" s="37">
+        <f t="shared" si="100"/>
+        <v>1639</v>
+      </c>
+      <c r="L32" s="37">
+        <f t="shared" si="100"/>
+        <v>1640</v>
+      </c>
+      <c r="M32" s="37">
+        <f t="shared" si="100"/>
+        <v>1641</v>
+      </c>
+      <c r="N32" s="37">
+        <f t="shared" si="100"/>
+        <v>1850</v>
+      </c>
+      <c r="O32" s="37">
+        <f t="shared" si="100"/>
+        <v>1850</v>
+      </c>
+      <c r="P32" s="37">
+        <f t="shared" si="100"/>
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="54"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="37">
+        <f>ROUNDDOWN(E32*0.08,0)</f>
+        <v>-72</v>
+      </c>
+      <c r="F33" s="37">
+        <f t="shared" ref="F33" si="101">ROUNDDOWN(F32*0.08,0)</f>
+        <v>-72</v>
+      </c>
+      <c r="G33" s="37">
+        <f t="shared" ref="G33" si="102">ROUNDDOWN(G32*0.08,0)</f>
+        <v>-72</v>
+      </c>
+      <c r="H33" s="37">
+        <f t="shared" ref="H33" si="103">ROUNDDOWN(H32*0.08,0)</f>
+        <v>-4</v>
+      </c>
+      <c r="I33" s="37">
+        <f t="shared" ref="I33" si="104">ROUNDDOWN(I32*0.08,0)</f>
+        <v>-4</v>
+      </c>
+      <c r="J33" s="37">
+        <f t="shared" ref="J33" si="105">ROUNDDOWN(J32*0.08,0)</f>
+        <v>-3</v>
+      </c>
+      <c r="K33" s="37">
+        <f t="shared" ref="K33" si="106">ROUNDDOWN(K32*0.08,0)</f>
+        <v>131</v>
+      </c>
+      <c r="L33" s="37">
+        <f t="shared" ref="L33" si="107">ROUNDDOWN(L32*0.08,0)</f>
+        <v>131</v>
+      </c>
+      <c r="M33" s="37">
+        <f t="shared" ref="M33" si="108">ROUNDDOWN(M32*0.08,0)</f>
+        <v>131</v>
+      </c>
+      <c r="N33" s="37">
+        <f t="shared" ref="N33" si="109">ROUNDDOWN(N32*0.08,0)</f>
+        <v>148</v>
+      </c>
+      <c r="O33" s="37">
+        <f t="shared" ref="O33" si="110">ROUNDDOWN(O32*0.08,0)</f>
+        <v>148</v>
+      </c>
+      <c r="P33" s="37">
+        <f t="shared" ref="P33" si="111">ROUNDDOWN(P32*0.08,0)</f>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="54"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="37">
+        <f>E32+E33</f>
+        <v>-977</v>
+      </c>
+      <c r="F34" s="37">
+        <f t="shared" ref="F34" si="112">F32+F33</f>
+        <v>-977</v>
+      </c>
+      <c r="G34" s="37">
+        <f t="shared" ref="G34" si="113">G32+G33</f>
+        <v>-976</v>
+      </c>
+      <c r="H34" s="37">
+        <f t="shared" ref="H34" si="114">H32+H33</f>
+        <v>-54</v>
+      </c>
+      <c r="I34" s="37">
+        <f t="shared" ref="I34" si="115">I32+I33</f>
+        <v>-54</v>
+      </c>
+      <c r="J34" s="37">
+        <f t="shared" ref="J34" si="116">J32+J33</f>
+        <v>-52</v>
+      </c>
+      <c r="K34" s="37">
+        <f t="shared" ref="K34" si="117">K32+K33</f>
+        <v>1770</v>
+      </c>
+      <c r="L34" s="37">
+        <f t="shared" ref="L34" si="118">L32+L33</f>
+        <v>1771</v>
+      </c>
+      <c r="M34" s="37">
+        <f t="shared" ref="M34" si="119">M32+M33</f>
+        <v>1772</v>
+      </c>
+      <c r="N34" s="37">
+        <f t="shared" ref="N34" si="120">N32+N33</f>
+        <v>1998</v>
+      </c>
+      <c r="O34" s="37">
+        <f t="shared" ref="O34" si="121">O32+O33</f>
+        <v>1998</v>
+      </c>
+      <c r="P34" s="37">
+        <f t="shared" ref="P34" si="122">P32+P33</f>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="54"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="37">
+        <f>IF(E34&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="F35" s="37">
+        <f t="shared" ref="F35" si="123">IF(F34&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="G35" s="37">
+        <f t="shared" ref="G35" si="124">IF(G34&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="H35" s="37">
+        <f t="shared" ref="H35" si="125">IF(H34&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="I35" s="37">
+        <f t="shared" ref="I35" si="126">IF(I34&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="J35" s="37">
+        <f t="shared" ref="J35" si="127">IF(J34&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="K35" s="37">
+        <f t="shared" ref="K35" si="128">IF(K34&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="L35" s="37">
+        <f t="shared" ref="L35" si="129">IF(L34&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="M35" s="37">
+        <f t="shared" ref="M35" si="130">IF(M34&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="N35" s="37">
+        <f t="shared" ref="N35" si="131">IF(N34&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="O35" s="37">
+        <f t="shared" ref="O35" si="132">IF(O34&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+      <c r="P35" s="37">
+        <f t="shared" ref="P35" si="133">IF(P34&gt;=3000,0,350)</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="54"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="44">
+        <f>E35+E34</f>
+        <v>-627</v>
+      </c>
+      <c r="F36" s="44">
+        <f t="shared" ref="F36" si="134">F35+F34</f>
+        <v>-627</v>
+      </c>
+      <c r="G36" s="44">
+        <f t="shared" ref="G36" si="135">G35+G34</f>
+        <v>-626</v>
+      </c>
+      <c r="H36" s="44">
+        <f t="shared" ref="H36" si="136">H35+H34</f>
+        <v>296</v>
+      </c>
+      <c r="I36" s="44">
+        <f t="shared" ref="I36" si="137">I35+I34</f>
+        <v>296</v>
+      </c>
+      <c r="J36" s="44">
+        <f t="shared" ref="J36" si="138">J35+J34</f>
+        <v>298</v>
+      </c>
+      <c r="K36" s="44">
+        <f t="shared" ref="K36" si="139">K35+K34</f>
+        <v>2120</v>
+      </c>
+      <c r="L36" s="44">
+        <f t="shared" ref="L36" si="140">L35+L34</f>
+        <v>2121</v>
+      </c>
+      <c r="M36" s="44">
+        <f t="shared" ref="M36" si="141">M35+M34</f>
+        <v>2122</v>
+      </c>
+      <c r="N36" s="44">
+        <f t="shared" ref="N36" si="142">N35+N34</f>
+        <v>2348</v>
+      </c>
+      <c r="O36" s="44">
+        <f t="shared" ref="O36" si="143">O35+O34</f>
+        <v>2348</v>
+      </c>
+      <c r="P36" s="44">
+        <f t="shared" ref="P36" si="144">P35+P34</f>
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="54"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="46">
+        <f>ROUNDDOWN(E32/100,0)</f>
+        <v>-9</v>
+      </c>
+      <c r="F37" s="46">
+        <f t="shared" ref="F37:P37" si="145">ROUNDDOWN(F32/100,0)</f>
+        <v>-9</v>
+      </c>
+      <c r="G37" s="46">
+        <f t="shared" si="145"/>
+        <v>-9</v>
+      </c>
+      <c r="H37" s="46">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="46">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="46">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="46">
+        <f t="shared" si="145"/>
+        <v>16</v>
+      </c>
+      <c r="L37" s="46">
+        <f t="shared" si="145"/>
+        <v>16</v>
+      </c>
+      <c r="M37" s="46">
+        <f t="shared" si="145"/>
+        <v>16</v>
+      </c>
+      <c r="N37" s="46">
+        <f t="shared" si="145"/>
+        <v>18</v>
+      </c>
+      <c r="O37" s="46">
+        <f t="shared" si="145"/>
+        <v>18</v>
+      </c>
+      <c r="P37" s="46">
+        <f t="shared" si="145"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="55"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="51"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="A3:A20"/>
+    <mergeCell ref="A21:A38"/>
+    <mergeCell ref="B21:B29"/>
+  </mergeCells>
+  <phoneticPr fontId="12"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
